--- a/data/误差.xlsx
+++ b/data/误差.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,46 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="Trajectory_lidar_2_1" localSheetId="0">Sheet1!$A$1:$G$158</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Trajectory-lidar-2-1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\GitHub\KalmanFilter\data\Trajectory-lidar-2-1.txt" space="1" consecutive="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +76,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Trajectory-lidar-2-1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +381,3662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>258016.23718071001</v>
+      </c>
+      <c r="B1">
+        <v>3369371.15802002</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>6.0847290000000003</v>
+      </c>
+      <c r="E1">
+        <v>8.6209340000000001</v>
+      </c>
+      <c r="F1">
+        <v>87.150002000000001</v>
+      </c>
+      <c r="G1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>258016.25623894</v>
+      </c>
+      <c r="B2">
+        <v>3369371.4820404099</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.1037879999999998</v>
+      </c>
+      <c r="E2">
+        <v>8.9449500000000004</v>
+      </c>
+      <c r="F2">
+        <v>87.25</v>
+      </c>
+      <c r="G2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>258016.25445365999</v>
+      </c>
+      <c r="B3">
+        <v>3369371.7034378098</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6.1020029999999998</v>
+      </c>
+      <c r="E3">
+        <v>9.1663510000000006</v>
+      </c>
+      <c r="F3">
+        <v>87.349997999999999</v>
+      </c>
+      <c r="G3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>258016.28000832</v>
+      </c>
+      <c r="B4">
+        <v>3369371.8958740202</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6.1275579999999996</v>
+      </c>
+      <c r="E4">
+        <v>9.3587860000000003</v>
+      </c>
+      <c r="F4">
+        <v>87.449996999999996</v>
+      </c>
+      <c r="G4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>258016.27470206999</v>
+      </c>
+      <c r="B5">
+        <v>3369372.1362381</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6.1222510000000003</v>
+      </c>
+      <c r="E5">
+        <v>9.5991490000000006</v>
+      </c>
+      <c r="F5">
+        <v>87.550003000000004</v>
+      </c>
+      <c r="G5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>258016.26729583999</v>
+      </c>
+      <c r="B6">
+        <v>3369372.42285919</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.114846</v>
+      </c>
+      <c r="E6">
+        <v>9.8857759999999999</v>
+      </c>
+      <c r="F6">
+        <v>87.650002000000001</v>
+      </c>
+      <c r="G6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>258016.28655051999</v>
+      </c>
+      <c r="B7">
+        <v>3369372.6455230699</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6.134099</v>
+      </c>
+      <c r="E7">
+        <v>10.108435</v>
+      </c>
+      <c r="F7">
+        <v>87.75</v>
+      </c>
+      <c r="G7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>258016.26083755001</v>
+      </c>
+      <c r="B8">
+        <v>3369372.88941193</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6.1083869999999996</v>
+      </c>
+      <c r="E8">
+        <v>10.352326</v>
+      </c>
+      <c r="F8">
+        <v>87.849997999999999</v>
+      </c>
+      <c r="G8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>258016.26515006999</v>
+      </c>
+      <c r="B9">
+        <v>3369372.9298934899</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.1126990000000001</v>
+      </c>
+      <c r="E9">
+        <v>10.392806999999999</v>
+      </c>
+      <c r="F9">
+        <v>87.949996999999996</v>
+      </c>
+      <c r="G9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>258016.25860214001</v>
+      </c>
+      <c r="B10">
+        <v>3369373.3555602999</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6.1061519999999998</v>
+      </c>
+      <c r="E10">
+        <v>10.818476</v>
+      </c>
+      <c r="F10">
+        <v>88.050003000000004</v>
+      </c>
+      <c r="G10">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>258016.22403526001</v>
+      </c>
+      <c r="B11">
+        <v>3369373.5470962501</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>6.0715839999999996</v>
+      </c>
+      <c r="E11">
+        <v>11.010007</v>
+      </c>
+      <c r="F11">
+        <v>88.150002000000001</v>
+      </c>
+      <c r="G11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>258016.22065544</v>
+      </c>
+      <c r="B12">
+        <v>3369373.76371765</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6.0682039999999997</v>
+      </c>
+      <c r="E12">
+        <v>11.226628</v>
+      </c>
+      <c r="F12">
+        <v>88.25</v>
+      </c>
+      <c r="G12">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>258016.18690872</v>
+      </c>
+      <c r="B13">
+        <v>3369373.9428176899</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.0344569999999997</v>
+      </c>
+      <c r="E13">
+        <v>11.405733</v>
+      </c>
+      <c r="F13">
+        <v>88.349997999999999</v>
+      </c>
+      <c r="G13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>258016.14779471999</v>
+      </c>
+      <c r="B14">
+        <v>3369374.2266311599</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5.9953440000000002</v>
+      </c>
+      <c r="E14">
+        <v>11.689546999999999</v>
+      </c>
+      <c r="F14">
+        <v>88.449996999999996</v>
+      </c>
+      <c r="G14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>258016.11399650999</v>
+      </c>
+      <c r="B15">
+        <v>3369374.4721450801</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5.9615450000000001</v>
+      </c>
+      <c r="E15">
+        <v>11.935055999999999</v>
+      </c>
+      <c r="F15">
+        <v>88.550003000000004</v>
+      </c>
+      <c r="G15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>258016.08384132001</v>
+      </c>
+      <c r="B16">
+        <v>3369374.63610077</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5.9313909999999996</v>
+      </c>
+      <c r="E16">
+        <v>12.099017</v>
+      </c>
+      <c r="F16">
+        <v>88.650002000000001</v>
+      </c>
+      <c r="G16">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>258016.05843544001</v>
+      </c>
+      <c r="B17">
+        <v>3369374.87702179</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5.9059850000000003</v>
+      </c>
+      <c r="E17">
+        <v>12.339933</v>
+      </c>
+      <c r="F17">
+        <v>88.75</v>
+      </c>
+      <c r="G17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>258016.00455665999</v>
+      </c>
+      <c r="B18">
+        <v>3369375.2306594802</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5.852106</v>
+      </c>
+      <c r="E18">
+        <v>12.693569999999999</v>
+      </c>
+      <c r="F18">
+        <v>88.849997999999999</v>
+      </c>
+      <c r="G18">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>258015.86669445</v>
+      </c>
+      <c r="B19">
+        <v>3369375.7766876202</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5.7142429999999997</v>
+      </c>
+      <c r="E19">
+        <v>13.239599999999999</v>
+      </c>
+      <c r="F19">
+        <v>89.050003000000004</v>
+      </c>
+      <c r="G19">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>258015.81710720001</v>
+      </c>
+      <c r="B20">
+        <v>3369376.0439910898</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5.6646559999999999</v>
+      </c>
+      <c r="E20">
+        <v>13.506905</v>
+      </c>
+      <c r="F20">
+        <v>89.150002000000001</v>
+      </c>
+      <c r="G20">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>258015.76507568001</v>
+      </c>
+      <c r="B21">
+        <v>3369376.3041610699</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5.6126250000000004</v>
+      </c>
+      <c r="E21">
+        <v>13.767075999999999</v>
+      </c>
+      <c r="F21">
+        <v>89.25</v>
+      </c>
+      <c r="G21">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>258015.80878925</v>
+      </c>
+      <c r="B22">
+        <v>3369376.69081116</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5.6467309999999999</v>
+      </c>
+      <c r="E22">
+        <v>14.153936</v>
+      </c>
+      <c r="F22">
+        <v>89.349997999999999</v>
+      </c>
+      <c r="G22">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>258015.62235928001</v>
+      </c>
+      <c r="B23">
+        <v>3369376.9158248901</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5.4603010000000003</v>
+      </c>
+      <c r="E23">
+        <v>14.378947999999999</v>
+      </c>
+      <c r="F23">
+        <v>89.449996999999996</v>
+      </c>
+      <c r="G23">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>258015.54617690999</v>
+      </c>
+      <c r="B24">
+        <v>3369377.1717834501</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5.393726</v>
+      </c>
+      <c r="E24">
+        <v>14.634696</v>
+      </c>
+      <c r="F24">
+        <v>89.550003000000004</v>
+      </c>
+      <c r="G24">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>258015.41944217999</v>
+      </c>
+      <c r="B25">
+        <v>3369377.5796585102</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5.266991</v>
+      </c>
+      <c r="E25">
+        <v>15.042567999999999</v>
+      </c>
+      <c r="F25">
+        <v>89.650002000000001</v>
+      </c>
+      <c r="G25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>258015.29516601999</v>
+      </c>
+      <c r="B26">
+        <v>3369377.8365020799</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5.1427149999999999</v>
+      </c>
+      <c r="E26">
+        <v>15.299416000000001</v>
+      </c>
+      <c r="F26">
+        <v>89.75</v>
+      </c>
+      <c r="G26">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>258015.17163277001</v>
+      </c>
+      <c r="B27">
+        <v>3369377.9880599999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5.0191819999999998</v>
+      </c>
+      <c r="E27">
+        <v>15.450974</v>
+      </c>
+      <c r="F27">
+        <v>89.849997999999999</v>
+      </c>
+      <c r="G27">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>258014.99919415</v>
+      </c>
+      <c r="B28">
+        <v>3369378.3086319002</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4.846743</v>
+      </c>
+      <c r="E28">
+        <v>15.771544</v>
+      </c>
+      <c r="F28">
+        <v>89.949996999999996</v>
+      </c>
+      <c r="G28">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>258014.85540485001</v>
+      </c>
+      <c r="B29">
+        <v>3369378.65450287</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4.7029540000000001</v>
+      </c>
+      <c r="E29">
+        <v>16.117414</v>
+      </c>
+      <c r="F29">
+        <v>90.050003000000004</v>
+      </c>
+      <c r="G29">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>258014.65129757</v>
+      </c>
+      <c r="B30">
+        <v>3369378.95124054</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.4988469999999996</v>
+      </c>
+      <c r="E30">
+        <v>16.414154</v>
+      </c>
+      <c r="F30">
+        <v>90.150002000000001</v>
+      </c>
+      <c r="G30">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>258014.53565502001</v>
+      </c>
+      <c r="B31">
+        <v>3369379.13331604</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4.3832040000000001</v>
+      </c>
+      <c r="E31">
+        <v>16.596226000000001</v>
+      </c>
+      <c r="F31">
+        <v>90.25</v>
+      </c>
+      <c r="G31">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>258014.37287806999</v>
+      </c>
+      <c r="B32">
+        <v>3369379.3277206402</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>4.22018</v>
+      </c>
+      <c r="E32">
+        <v>16.779544999999999</v>
+      </c>
+      <c r="F32">
+        <v>90.349997999999999</v>
+      </c>
+      <c r="G32">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>258014.16930199001</v>
+      </c>
+      <c r="B33">
+        <v>3369379.6570892301</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4.0166040000000001</v>
+      </c>
+      <c r="E33">
+        <v>17.108912</v>
+      </c>
+      <c r="F33">
+        <v>90.449996999999996</v>
+      </c>
+      <c r="G33">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>258013.98276329</v>
+      </c>
+      <c r="B34">
+        <v>3369379.8045349098</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3.8300649999999998</v>
+      </c>
+      <c r="E34">
+        <v>17.256363</v>
+      </c>
+      <c r="F34">
+        <v>90.550003000000004</v>
+      </c>
+      <c r="G34">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>258013.82720088999</v>
+      </c>
+      <c r="B35">
+        <v>3369379.9816055298</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3.6745030000000001</v>
+      </c>
+      <c r="E35">
+        <v>17.433433999999998</v>
+      </c>
+      <c r="F35">
+        <v>90.650002000000001</v>
+      </c>
+      <c r="G35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>258013.62753773</v>
+      </c>
+      <c r="B36">
+        <v>3369380.21082306</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3.4748399999999999</v>
+      </c>
+      <c r="E36">
+        <v>17.662651</v>
+      </c>
+      <c r="F36">
+        <v>90.75</v>
+      </c>
+      <c r="G36">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>258013.37734127001</v>
+      </c>
+      <c r="B37">
+        <v>3369380.3883819599</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3.2246429999999999</v>
+      </c>
+      <c r="E37">
+        <v>17.840204</v>
+      </c>
+      <c r="F37">
+        <v>90.849997999999999</v>
+      </c>
+      <c r="G37">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>258013.17080975001</v>
+      </c>
+      <c r="B38">
+        <v>3369380.5550155598</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3.0181119999999999</v>
+      </c>
+      <c r="E38">
+        <v>18.00684</v>
+      </c>
+      <c r="F38">
+        <v>90.949996999999996</v>
+      </c>
+      <c r="G38">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>258012.98478889</v>
+      </c>
+      <c r="B39">
+        <v>3369380.7550506601</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2.8320910000000001</v>
+      </c>
+      <c r="E39">
+        <v>18.206873000000002</v>
+      </c>
+      <c r="F39">
+        <v>91.050003000000004</v>
+      </c>
+      <c r="G39">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>258012.79567145999</v>
+      </c>
+      <c r="B40">
+        <v>3369380.8420867901</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2.6432199999999999</v>
+      </c>
+      <c r="E40">
+        <v>18.305002000000002</v>
+      </c>
+      <c r="F40">
+        <v>91.150002000000001</v>
+      </c>
+      <c r="G40">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>258012.46120262</v>
+      </c>
+      <c r="B41">
+        <v>3369381.0715866098</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2.3087520000000001</v>
+      </c>
+      <c r="E41">
+        <v>18.534496000000001</v>
+      </c>
+      <c r="F41">
+        <v>91.25</v>
+      </c>
+      <c r="G41">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>258012.3047142</v>
+      </c>
+      <c r="B42">
+        <v>3369381.1948699998</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2.1520160000000002</v>
+      </c>
+      <c r="E42">
+        <v>18.646699999999999</v>
+      </c>
+      <c r="F42">
+        <v>91.349997999999999</v>
+      </c>
+      <c r="G42">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>258012.02892780001</v>
+      </c>
+      <c r="B43">
+        <v>3369381.3783798199</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1.8762300000000001</v>
+      </c>
+      <c r="E43">
+        <v>18.830206</v>
+      </c>
+      <c r="F43">
+        <v>91.449996999999996</v>
+      </c>
+      <c r="G43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>258011.71619224999</v>
+      </c>
+      <c r="B44">
+        <v>3369381.61103058</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1.5634939999999999</v>
+      </c>
+      <c r="E44">
+        <v>19.062854999999999</v>
+      </c>
+      <c r="F44">
+        <v>91.550003000000004</v>
+      </c>
+      <c r="G44">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>258011.51216315999</v>
+      </c>
+      <c r="B45">
+        <v>3369381.6627121</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1.3594649999999999</v>
+      </c>
+      <c r="E45">
+        <v>19.114533999999999</v>
+      </c>
+      <c r="F45">
+        <v>91.650002000000001</v>
+      </c>
+      <c r="G45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>258011.26196574999</v>
+      </c>
+      <c r="B46">
+        <v>3369381.7592392</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1.1092679999999999</v>
+      </c>
+      <c r="E46">
+        <v>19.211065000000001</v>
+      </c>
+      <c r="F46">
+        <v>91.75</v>
+      </c>
+      <c r="G46">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>258010.95779514001</v>
+      </c>
+      <c r="B47">
+        <v>3369381.9264602698</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.80509699999999995</v>
+      </c>
+      <c r="E47">
+        <v>19.378283</v>
+      </c>
+      <c r="F47">
+        <v>91.849997999999999</v>
+      </c>
+      <c r="G47">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>258010.7745533</v>
+      </c>
+      <c r="B48">
+        <v>3369382.0218200702</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.62210200000000004</v>
+      </c>
+      <c r="E48">
+        <v>19.484732000000001</v>
+      </c>
+      <c r="F48">
+        <v>91.949996999999996</v>
+      </c>
+      <c r="G48">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>258010.41175556</v>
+      </c>
+      <c r="B49">
+        <v>3369382.1612472502</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.25930500000000001</v>
+      </c>
+      <c r="E49">
+        <v>19.624162999999999</v>
+      </c>
+      <c r="F49">
+        <v>92.050003000000004</v>
+      </c>
+      <c r="G49">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>258010.13212299001</v>
+      </c>
+      <c r="B50">
+        <v>3369382.2433776902</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-2.0327999999999999E-2</v>
+      </c>
+      <c r="E50">
+        <v>19.706285000000001</v>
+      </c>
+      <c r="F50">
+        <v>92.150002000000001</v>
+      </c>
+      <c r="G50">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>258009.96576977</v>
+      </c>
+      <c r="B51">
+        <v>3369382.2491378798</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>-0.18668100000000001</v>
+      </c>
+      <c r="E51">
+        <v>19.712050999999999</v>
+      </c>
+      <c r="F51">
+        <v>92.25</v>
+      </c>
+      <c r="G51">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>258009.67069817</v>
+      </c>
+      <c r="B52">
+        <v>3369382.3404464698</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>-0.48175299999999999</v>
+      </c>
+      <c r="E52">
+        <v>19.803357999999999</v>
+      </c>
+      <c r="F52">
+        <v>92.349997999999999</v>
+      </c>
+      <c r="G52">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>258009.36075878001</v>
+      </c>
+      <c r="B53">
+        <v>3369382.4094009399</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>-0.79169199999999995</v>
+      </c>
+      <c r="E53">
+        <v>19.872316000000001</v>
+      </c>
+      <c r="F53">
+        <v>92.449996999999996</v>
+      </c>
+      <c r="G53">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>258009.07686329001</v>
+      </c>
+      <c r="B54">
+        <v>3369382.4647674598</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>-1.075588</v>
+      </c>
+      <c r="E54">
+        <v>19.927682999999998</v>
+      </c>
+      <c r="F54">
+        <v>92.550003000000004</v>
+      </c>
+      <c r="G54">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>258008.81669616999</v>
+      </c>
+      <c r="B55">
+        <v>3369382.5061111501</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>-1.335755</v>
+      </c>
+      <c r="E55">
+        <v>19.969023</v>
+      </c>
+      <c r="F55">
+        <v>92.650002000000001</v>
+      </c>
+      <c r="G55">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>258008.57248974001</v>
+      </c>
+      <c r="B56">
+        <v>3369382.4091491699</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>-1.57996</v>
+      </c>
+      <c r="E56">
+        <v>19.872060999999999</v>
+      </c>
+      <c r="F56">
+        <v>92.75</v>
+      </c>
+      <c r="G56">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>258008.05429077</v>
+      </c>
+      <c r="B57">
+        <v>3369382.5457611098</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>-2.09816</v>
+      </c>
+      <c r="E57">
+        <v>20.008675</v>
+      </c>
+      <c r="F57">
+        <v>92.949996999999996</v>
+      </c>
+      <c r="G57">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>258007.74793290999</v>
+      </c>
+      <c r="B58">
+        <v>3369382.5413207998</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>-2.4045179999999999</v>
+      </c>
+      <c r="E58">
+        <v>20.00423</v>
+      </c>
+      <c r="F58">
+        <v>93.050003000000004</v>
+      </c>
+      <c r="G58">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>258007.52936506001</v>
+      </c>
+      <c r="B59">
+        <v>3369382.5129928598</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>-2.6230859999999998</v>
+      </c>
+      <c r="E59">
+        <v>19.975908</v>
+      </c>
+      <c r="F59">
+        <v>93.150002000000001</v>
+      </c>
+      <c r="G59">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>258007.31393194001</v>
+      </c>
+      <c r="B60">
+        <v>3369382.4722137498</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>-2.8385189999999998</v>
+      </c>
+      <c r="E60">
+        <v>19.935127000000001</v>
+      </c>
+      <c r="F60">
+        <v>93.25</v>
+      </c>
+      <c r="G60">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>258007.06624889001</v>
+      </c>
+      <c r="B61">
+        <v>3369382.42668152</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>-3.0862020000000001</v>
+      </c>
+      <c r="E61">
+        <v>19.889589000000001</v>
+      </c>
+      <c r="F61">
+        <v>93.349997999999999</v>
+      </c>
+      <c r="G61">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>258006.68822479001</v>
+      </c>
+      <c r="B62">
+        <v>3369382.23345184</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>-3.464226</v>
+      </c>
+      <c r="E62">
+        <v>19.696365</v>
+      </c>
+      <c r="F62">
+        <v>93.449996999999996</v>
+      </c>
+      <c r="G62">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>258006.30913877001</v>
+      </c>
+      <c r="B63">
+        <v>3369382.1318359398</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>-3.8433120000000001</v>
+      </c>
+      <c r="E63">
+        <v>19.594747999999999</v>
+      </c>
+      <c r="F63">
+        <v>93.550003000000004</v>
+      </c>
+      <c r="G63">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>258006.16850805</v>
+      </c>
+      <c r="B64">
+        <v>3369382.2211532602</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>-3.983943</v>
+      </c>
+      <c r="E64">
+        <v>19.684066999999999</v>
+      </c>
+      <c r="F64">
+        <v>93.650002000000001</v>
+      </c>
+      <c r="G64">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>258005.88164996999</v>
+      </c>
+      <c r="B65">
+        <v>3369381.9643783602</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>-4.2708009999999996</v>
+      </c>
+      <c r="E65">
+        <v>19.427285999999999</v>
+      </c>
+      <c r="F65">
+        <v>93.75</v>
+      </c>
+      <c r="G65">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>258005.74011278001</v>
+      </c>
+      <c r="B66">
+        <v>3369381.8902664199</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>-4.4123380000000001</v>
+      </c>
+      <c r="E66">
+        <v>19.353179999999998</v>
+      </c>
+      <c r="F66">
+        <v>93.849997999999999</v>
+      </c>
+      <c r="G66">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>258005.73886489999</v>
+      </c>
+      <c r="B67">
+        <v>3369381.9923095698</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>-4.4135850000000003</v>
+      </c>
+      <c r="E67">
+        <v>19.455223</v>
+      </c>
+      <c r="F67">
+        <v>93.949996999999996</v>
+      </c>
+      <c r="G67">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>258005.36129713</v>
+      </c>
+      <c r="B68">
+        <v>3369381.8248291002</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>-4.7911539999999997</v>
+      </c>
+      <c r="E68">
+        <v>19.287745000000001</v>
+      </c>
+      <c r="F68">
+        <v>94.050003000000004</v>
+      </c>
+      <c r="G68">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>258005.11844014999</v>
+      </c>
+      <c r="B69">
+        <v>3369381.7088851901</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>-5.0340109999999996</v>
+      </c>
+      <c r="E69">
+        <v>19.171800999999999</v>
+      </c>
+      <c r="F69">
+        <v>94.150002000000001</v>
+      </c>
+      <c r="G69">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>258004.88118791999</v>
+      </c>
+      <c r="B70">
+        <v>3369381.5817108201</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>-5.2712630000000003</v>
+      </c>
+      <c r="E70">
+        <v>19.044626000000001</v>
+      </c>
+      <c r="F70">
+        <v>94.25</v>
+      </c>
+      <c r="G70">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>258004.62444305001</v>
+      </c>
+      <c r="B71">
+        <v>3369381.4490890498</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>-5.5280079999999998</v>
+      </c>
+      <c r="E71">
+        <v>18.912004</v>
+      </c>
+      <c r="F71">
+        <v>94.349997999999999</v>
+      </c>
+      <c r="G71">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>258004.42823076001</v>
+      </c>
+      <c r="B72">
+        <v>3369381.2492370601</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>-5.7242199999999999</v>
+      </c>
+      <c r="E72">
+        <v>18.712149</v>
+      </c>
+      <c r="F72">
+        <v>94.449996999999996</v>
+      </c>
+      <c r="G72">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>258004.12450504</v>
+      </c>
+      <c r="B73">
+        <v>3369380.9411239601</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>-6.027946</v>
+      </c>
+      <c r="E73">
+        <v>18.404036000000001</v>
+      </c>
+      <c r="F73">
+        <v>94.550003000000004</v>
+      </c>
+      <c r="G73">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>258003.90349507</v>
+      </c>
+      <c r="B74">
+        <v>3369380.91254425</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>-6.2489559999999997</v>
+      </c>
+      <c r="E74">
+        <v>18.37546</v>
+      </c>
+      <c r="F74">
+        <v>94.650002000000001</v>
+      </c>
+      <c r="G74">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>258003.74766111001</v>
+      </c>
+      <c r="B75">
+        <v>3369380.67966461</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>-6.4047900000000002</v>
+      </c>
+      <c r="E75">
+        <v>18.142575999999998</v>
+      </c>
+      <c r="F75">
+        <v>94.75</v>
+      </c>
+      <c r="G75">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>258003.57141900001</v>
+      </c>
+      <c r="B76">
+        <v>3369380.4950637799</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>-6.5810320000000004</v>
+      </c>
+      <c r="E76">
+        <v>17.957977</v>
+      </c>
+      <c r="F76">
+        <v>94.849997999999999</v>
+      </c>
+      <c r="G76">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>258003.44580197</v>
+      </c>
+      <c r="B77">
+        <v>3369380.3595428499</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>-6.7066489999999996</v>
+      </c>
+      <c r="E77">
+        <v>17.822452999999999</v>
+      </c>
+      <c r="F77">
+        <v>94.949996999999996</v>
+      </c>
+      <c r="G77">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>258003.29132295001</v>
+      </c>
+      <c r="B78">
+        <v>3369380.1199264498</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>-6.8611279999999999</v>
+      </c>
+      <c r="E78">
+        <v>17.582841999999999</v>
+      </c>
+      <c r="F78">
+        <v>95.050003000000004</v>
+      </c>
+      <c r="G78">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>258003.15292597</v>
+      </c>
+      <c r="B79">
+        <v>3369379.93205261</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>-6.9995250000000002</v>
+      </c>
+      <c r="E79">
+        <v>17.394967999999999</v>
+      </c>
+      <c r="F79">
+        <v>95.150002000000001</v>
+      </c>
+      <c r="G79">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>258003.07245588</v>
+      </c>
+      <c r="B80">
+        <v>3369379.6942749</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>-7.0799950000000003</v>
+      </c>
+      <c r="E80">
+        <v>17.157184999999998</v>
+      </c>
+      <c r="F80">
+        <v>95.25</v>
+      </c>
+      <c r="G80">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>258002.91977692</v>
+      </c>
+      <c r="B81">
+        <v>3369379.4630203201</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>-7.2326740000000003</v>
+      </c>
+      <c r="E81">
+        <v>16.925934000000002</v>
+      </c>
+      <c r="F81">
+        <v>95.349997999999999</v>
+      </c>
+      <c r="G81">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>258002.85701489</v>
+      </c>
+      <c r="B82">
+        <v>3369379.3145523099</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>-7.2954359999999996</v>
+      </c>
+      <c r="E82">
+        <v>16.777462</v>
+      </c>
+      <c r="F82">
+        <v>95.449996999999996</v>
+      </c>
+      <c r="G82">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>258002.75536394</v>
+      </c>
+      <c r="B83">
+        <v>3369379.13542938</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>-7.397087</v>
+      </c>
+      <c r="E83">
+        <v>16.598338999999999</v>
+      </c>
+      <c r="F83">
+        <v>95.550003000000004</v>
+      </c>
+      <c r="G83">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>258002.6277709</v>
+      </c>
+      <c r="B84">
+        <v>3369378.6058731098</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>-7.52468</v>
+      </c>
+      <c r="E84">
+        <v>16.068787</v>
+      </c>
+      <c r="F84">
+        <v>95.75</v>
+      </c>
+      <c r="G84">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>258002.53571892</v>
+      </c>
+      <c r="B85">
+        <v>3369378.43811798</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>-7.6167319999999998</v>
+      </c>
+      <c r="E85">
+        <v>15.901031</v>
+      </c>
+      <c r="F85">
+        <v>95.849997999999999</v>
+      </c>
+      <c r="G85">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>258002.49411011001</v>
+      </c>
+      <c r="B86">
+        <v>3369378.2575759902</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>-7.6583399999999999</v>
+      </c>
+      <c r="E86">
+        <v>15.720489000000001</v>
+      </c>
+      <c r="F86">
+        <v>95.949996999999996</v>
+      </c>
+      <c r="G86">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>258002.42936993</v>
+      </c>
+      <c r="B87">
+        <v>3369378.0185241699</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>-7.7230809999999996</v>
+      </c>
+      <c r="E87">
+        <v>15.481434</v>
+      </c>
+      <c r="F87">
+        <v>96.050003000000004</v>
+      </c>
+      <c r="G87">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>258002.42300010001</v>
+      </c>
+      <c r="B88">
+        <v>3369377.7670135498</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>-7.7294510000000001</v>
+      </c>
+      <c r="E88">
+        <v>15.229925</v>
+      </c>
+      <c r="F88">
+        <v>96.150002000000001</v>
+      </c>
+      <c r="G88">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>258002.39549398</v>
+      </c>
+      <c r="B89">
+        <v>3369377.6346359299</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>-7.7569569999999999</v>
+      </c>
+      <c r="E89">
+        <v>15.097548</v>
+      </c>
+      <c r="F89">
+        <v>96.25</v>
+      </c>
+      <c r="G89">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>258002.40437793999</v>
+      </c>
+      <c r="B90">
+        <v>3369377.3863830599</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>-7.7480729999999998</v>
+      </c>
+      <c r="E90">
+        <v>14.849297999999999</v>
+      </c>
+      <c r="F90">
+        <v>96.349997999999999</v>
+      </c>
+      <c r="G90">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>258002.41736794001</v>
+      </c>
+      <c r="B91">
+        <v>3369377.1667404198</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>-7.7350830000000004</v>
+      </c>
+      <c r="E91">
+        <v>14.629656000000001</v>
+      </c>
+      <c r="F91">
+        <v>96.449996999999996</v>
+      </c>
+      <c r="G91">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>258002.44303297999</v>
+      </c>
+      <c r="B92">
+        <v>3369376.9651107802</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>-7.7190250000000002</v>
+      </c>
+      <c r="E92">
+        <v>14.428239</v>
+      </c>
+      <c r="F92">
+        <v>96.550003000000004</v>
+      </c>
+      <c r="G92">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>258002.44478607</v>
+      </c>
+      <c r="B93">
+        <v>3369376.7110290499</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>-7.7172720000000004</v>
+      </c>
+      <c r="E93">
+        <v>14.174155000000001</v>
+      </c>
+      <c r="F93">
+        <v>96.650002000000001</v>
+      </c>
+      <c r="G93">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>258002.45961093999</v>
+      </c>
+      <c r="B94">
+        <v>3369376.4858474699</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>-7.6928400000000003</v>
+      </c>
+      <c r="E94">
+        <v>13.94876</v>
+      </c>
+      <c r="F94">
+        <v>96.75</v>
+      </c>
+      <c r="G94">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>258002.50533104001</v>
+      </c>
+      <c r="B95">
+        <v>3369376.25250244</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>-7.6471200000000001</v>
+      </c>
+      <c r="E95">
+        <v>13.715415</v>
+      </c>
+      <c r="F95">
+        <v>96.849997999999999</v>
+      </c>
+      <c r="G95">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>258002.52234100999</v>
+      </c>
+      <c r="B96">
+        <v>3369376.0260391198</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>-7.6301100000000002</v>
+      </c>
+      <c r="E96">
+        <v>13.488953</v>
+      </c>
+      <c r="F96">
+        <v>96.949996999999996</v>
+      </c>
+      <c r="G96">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>258002.60829400999</v>
+      </c>
+      <c r="B97">
+        <v>3369375.8074264498</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>-7.5441570000000002</v>
+      </c>
+      <c r="E97">
+        <v>13.270339</v>
+      </c>
+      <c r="F97">
+        <v>97.050003000000004</v>
+      </c>
+      <c r="G97">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>258002.68396902</v>
+      </c>
+      <c r="B98">
+        <v>3369375.5745696998</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>-7.4684819999999998</v>
+      </c>
+      <c r="E98">
+        <v>13.037483</v>
+      </c>
+      <c r="F98">
+        <v>97.150002000000001</v>
+      </c>
+      <c r="G98">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>258002.73009895999</v>
+      </c>
+      <c r="B99">
+        <v>3369375.3139267</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>-7.4223520000000001</v>
+      </c>
+      <c r="E99">
+        <v>12.776835999999999</v>
+      </c>
+      <c r="F99">
+        <v>97.25</v>
+      </c>
+      <c r="G99">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>258002.84974288999</v>
+      </c>
+      <c r="B100">
+        <v>3369375.0677947998</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>-7.3123149999999999</v>
+      </c>
+      <c r="E100">
+        <v>12.530924000000001</v>
+      </c>
+      <c r="F100">
+        <v>97.349997999999999</v>
+      </c>
+      <c r="G100">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>258002.86591697001</v>
+      </c>
+      <c r="B101">
+        <v>3369374.8374252301</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>-7.2961410000000004</v>
+      </c>
+      <c r="E101">
+        <v>12.300554999999999</v>
+      </c>
+      <c r="F101">
+        <v>97.449996999999996</v>
+      </c>
+      <c r="G101">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>258002.95839094999</v>
+      </c>
+      <c r="B102">
+        <v>3369374.6272354098</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>-7.2036680000000004</v>
+      </c>
+      <c r="E102">
+        <v>12.090365</v>
+      </c>
+      <c r="F102">
+        <v>97.550003000000004</v>
+      </c>
+      <c r="G102">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>258003.05415297</v>
+      </c>
+      <c r="B103">
+        <v>3369374.38109589</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>-7.1079059999999998</v>
+      </c>
+      <c r="E103">
+        <v>11.844222</v>
+      </c>
+      <c r="F103">
+        <v>97.650002000000001</v>
+      </c>
+      <c r="G103">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>258003.14795089001</v>
+      </c>
+      <c r="B104">
+        <v>3369374.1462554899</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>-7.0141070000000001</v>
+      </c>
+      <c r="E104">
+        <v>11.609385</v>
+      </c>
+      <c r="F104">
+        <v>97.75</v>
+      </c>
+      <c r="G104">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>258003.33935189</v>
+      </c>
+      <c r="B105">
+        <v>3369373.9119415302</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>-6.8227060000000002</v>
+      </c>
+      <c r="E105">
+        <v>11.375071999999999</v>
+      </c>
+      <c r="F105">
+        <v>97.849997999999999</v>
+      </c>
+      <c r="G105">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>258003.42762398999</v>
+      </c>
+      <c r="B106">
+        <v>3369373.6184463501</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>-6.7344340000000003</v>
+      </c>
+      <c r="E106">
+        <v>11.081569999999999</v>
+      </c>
+      <c r="F106">
+        <v>97.949996999999996</v>
+      </c>
+      <c r="G106">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>258003.58912801999</v>
+      </c>
+      <c r="B107">
+        <v>3369373.38991547</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>-6.5729300000000004</v>
+      </c>
+      <c r="E107">
+        <v>10.85304</v>
+      </c>
+      <c r="F107">
+        <v>98.050003000000004</v>
+      </c>
+      <c r="G107">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>258003.74115896001</v>
+      </c>
+      <c r="B108">
+        <v>3369373.3277206402</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>-6.4208999999999996</v>
+      </c>
+      <c r="E108">
+        <v>10.790849</v>
+      </c>
+      <c r="F108">
+        <v>98.150002000000001</v>
+      </c>
+      <c r="G108">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>258003.87977099</v>
+      </c>
+      <c r="B109">
+        <v>3369373.11955261</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>-6.2822870000000002</v>
+      </c>
+      <c r="E109">
+        <v>10.582678</v>
+      </c>
+      <c r="F109">
+        <v>98.25</v>
+      </c>
+      <c r="G109">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>258004.03190517001</v>
+      </c>
+      <c r="B110">
+        <v>3369372.7596740699</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>-6.130153</v>
+      </c>
+      <c r="E110">
+        <v>10.222803000000001</v>
+      </c>
+      <c r="F110">
+        <v>98.349997999999999</v>
+      </c>
+      <c r="G110">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>258004.24514198001</v>
+      </c>
+      <c r="B111">
+        <v>3369372.5217514001</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>-5.9169159999999996</v>
+      </c>
+      <c r="E111">
+        <v>9.9848789999999994</v>
+      </c>
+      <c r="F111">
+        <v>98.449996999999996</v>
+      </c>
+      <c r="G111">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>258004.39751005001</v>
+      </c>
+      <c r="B112">
+        <v>3369372.3003540002</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>-5.7645479999999996</v>
+      </c>
+      <c r="E112">
+        <v>9.7634810000000005</v>
+      </c>
+      <c r="F112">
+        <v>98.550003000000004</v>
+      </c>
+      <c r="G112">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>258004.56928920999</v>
+      </c>
+      <c r="B113">
+        <v>3369372.0912933298</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>-5.5927689999999997</v>
+      </c>
+      <c r="E113">
+        <v>9.5544229999999999</v>
+      </c>
+      <c r="F113">
+        <v>98.650002000000001</v>
+      </c>
+      <c r="G113">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>258004.71660422999</v>
+      </c>
+      <c r="B114">
+        <v>3369371.9041442899</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>-5.4454539999999998</v>
+      </c>
+      <c r="E114">
+        <v>9.3672690000000003</v>
+      </c>
+      <c r="F114">
+        <v>98.75</v>
+      </c>
+      <c r="G114">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>258004.93395281001</v>
+      </c>
+      <c r="B115">
+        <v>3369371.7202301002</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>-5.2281050000000002</v>
+      </c>
+      <c r="E115">
+        <v>9.1833589999999994</v>
+      </c>
+      <c r="F115">
+        <v>98.849997999999999</v>
+      </c>
+      <c r="G115">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>258005.09398794</v>
+      </c>
+      <c r="B116">
+        <v>3369371.6656112699</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>-5.0680699999999996</v>
+      </c>
+      <c r="E116">
+        <v>9.128736</v>
+      </c>
+      <c r="F116">
+        <v>98.949996999999996</v>
+      </c>
+      <c r="G116">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>258005.22724390001</v>
+      </c>
+      <c r="B117">
+        <v>3369371.4814376798</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>-4.9348140000000003</v>
+      </c>
+      <c r="E117">
+        <v>8.9445630000000005</v>
+      </c>
+      <c r="F117">
+        <v>99.050003000000004</v>
+      </c>
+      <c r="G117">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>258005.48311186</v>
+      </c>
+      <c r="B118">
+        <v>3369371.3045654302</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>-4.6789459999999998</v>
+      </c>
+      <c r="E118">
+        <v>8.7676879999999997</v>
+      </c>
+      <c r="F118">
+        <v>99.150002000000001</v>
+      </c>
+      <c r="G118">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>258005.71791410001</v>
+      </c>
+      <c r="B119">
+        <v>3369371.0970764202</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>-4.4441439999999997</v>
+      </c>
+      <c r="E119">
+        <v>8.5602049999999998</v>
+      </c>
+      <c r="F119">
+        <v>99.25</v>
+      </c>
+      <c r="G119">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>258005.90561104001</v>
+      </c>
+      <c r="B120">
+        <v>3369370.8530960102</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>-4.2564469999999996</v>
+      </c>
+      <c r="E120">
+        <v>8.3162199999999995</v>
+      </c>
+      <c r="F120">
+        <v>99.349997999999999</v>
+      </c>
+      <c r="G120">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>258006.13210677999</v>
+      </c>
+      <c r="B121">
+        <v>3369370.6088256799</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>-4.0299509999999996</v>
+      </c>
+      <c r="E121">
+        <v>8.071949</v>
+      </c>
+      <c r="F121">
+        <v>99.449996999999996</v>
+      </c>
+      <c r="G121">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>258006.33341789001</v>
+      </c>
+      <c r="B122">
+        <v>3369370.40711975</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>-3.82864</v>
+      </c>
+      <c r="E122">
+        <v>7.8702430000000003</v>
+      </c>
+      <c r="F122">
+        <v>99.550003000000004</v>
+      </c>
+      <c r="G122">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>258006.50679493</v>
+      </c>
+      <c r="B123">
+        <v>3369370.2660141001</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>-3.6552630000000002</v>
+      </c>
+      <c r="E123">
+        <v>7.7291439999999998</v>
+      </c>
+      <c r="F123">
+        <v>99.650002000000001</v>
+      </c>
+      <c r="G123">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>258006.72626018999</v>
+      </c>
+      <c r="B124">
+        <v>3369370.0856399499</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>-3.4357980000000001</v>
+      </c>
+      <c r="E124">
+        <v>7.5487650000000004</v>
+      </c>
+      <c r="F124">
+        <v>99.75</v>
+      </c>
+      <c r="G124">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>258006.94123507</v>
+      </c>
+      <c r="B125">
+        <v>3369369.9616241502</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>-3.2208230000000002</v>
+      </c>
+      <c r="E125">
+        <v>7.4247480000000001</v>
+      </c>
+      <c r="F125">
+        <v>99.849997999999999</v>
+      </c>
+      <c r="G125">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>258007.17700291</v>
+      </c>
+      <c r="B126">
+        <v>3369369.6798477201</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>-2.9754480000000001</v>
+      </c>
+      <c r="E126">
+        <v>7.1427610000000001</v>
+      </c>
+      <c r="F126">
+        <v>99.949996999999996</v>
+      </c>
+      <c r="G126">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>258007.41868495999</v>
+      </c>
+      <c r="B127">
+        <v>3369369.4452133202</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>-2.7337660000000001</v>
+      </c>
+      <c r="E127">
+        <v>6.9081219999999997</v>
+      </c>
+      <c r="F127">
+        <v>100.050003</v>
+      </c>
+      <c r="G127">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>258007.66078519999</v>
+      </c>
+      <c r="B128">
+        <v>3369369.34715271</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>-2.4916659999999999</v>
+      </c>
+      <c r="E128">
+        <v>6.8100680000000002</v>
+      </c>
+      <c r="F128">
+        <v>100.150002</v>
+      </c>
+      <c r="G128">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>258007.82685089001</v>
+      </c>
+      <c r="B129">
+        <v>3369369.1449356098</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>-2.3256000000000001</v>
+      </c>
+      <c r="E129">
+        <v>6.6078450000000002</v>
+      </c>
+      <c r="F129">
+        <v>100.25</v>
+      </c>
+      <c r="G129">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>258008.06465816</v>
+      </c>
+      <c r="B130">
+        <v>3369368.9574584998</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>-2.087793</v>
+      </c>
+      <c r="E130">
+        <v>6.4203739999999998</v>
+      </c>
+      <c r="F130">
+        <v>100.349998</v>
+      </c>
+      <c r="G130">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>258008.32110214001</v>
+      </c>
+      <c r="B131">
+        <v>3369368.67583466</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>-1.8313489999999999</v>
+      </c>
+      <c r="E131">
+        <v>6.1387470000000004</v>
+      </c>
+      <c r="F131">
+        <v>100.449997</v>
+      </c>
+      <c r="G131">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>258008.54566574001</v>
+      </c>
+      <c r="B132">
+        <v>3369368.48570251</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>-1.6067849999999999</v>
+      </c>
+      <c r="E132">
+        <v>5.9486179999999997</v>
+      </c>
+      <c r="F132">
+        <v>100.550003</v>
+      </c>
+      <c r="G132">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>258008.80937767</v>
+      </c>
+      <c r="B133">
+        <v>3369368.3230896001</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>-1.343073</v>
+      </c>
+      <c r="E133">
+        <v>5.7859990000000003</v>
+      </c>
+      <c r="F133">
+        <v>100.650002</v>
+      </c>
+      <c r="G133">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>258009.00444031</v>
+      </c>
+      <c r="B134">
+        <v>3369368.1629257202</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>-1.1480109999999999</v>
+      </c>
+      <c r="E134">
+        <v>5.6258369999999998</v>
+      </c>
+      <c r="F134">
+        <v>100.75</v>
+      </c>
+      <c r="G134">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>258009.23897552001</v>
+      </c>
+      <c r="B135">
+        <v>3369367.8860320998</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>-0.91347500000000004</v>
+      </c>
+      <c r="E135">
+        <v>5.348948</v>
+      </c>
+      <c r="F135">
+        <v>100.849998</v>
+      </c>
+      <c r="G135">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>258009.46579456</v>
+      </c>
+      <c r="B136">
+        <v>3369367.6913680998</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>-0.68665500000000002</v>
+      </c>
+      <c r="E136">
+        <v>5.1542839999999996</v>
+      </c>
+      <c r="F136">
+        <v>100.949997</v>
+      </c>
+      <c r="G136">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>258009.67164135</v>
+      </c>
+      <c r="B137">
+        <v>3369367.5126495399</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>-0.48081000000000002</v>
+      </c>
+      <c r="E137">
+        <v>4.9755599999999998</v>
+      </c>
+      <c r="F137">
+        <v>101.050003</v>
+      </c>
+      <c r="G137">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>258009.87661743001</v>
+      </c>
+      <c r="B138">
+        <v>3369367.3602600102</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>-0.27583400000000002</v>
+      </c>
+      <c r="E138">
+        <v>4.8231700000000002</v>
+      </c>
+      <c r="F138">
+        <v>101.150002</v>
+      </c>
+      <c r="G138">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>258010.06536388001</v>
+      </c>
+      <c r="B139">
+        <v>3369367.14135742</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>-8.7086999999999998E-2</v>
+      </c>
+      <c r="E139">
+        <v>4.6042719999999999</v>
+      </c>
+      <c r="F139">
+        <v>101.25</v>
+      </c>
+      <c r="G139">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>258010.28047276</v>
+      </c>
+      <c r="B140">
+        <v>3369366.9014511099</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.128022</v>
+      </c>
+      <c r="E140">
+        <v>4.364363</v>
+      </c>
+      <c r="F140">
+        <v>101.349998</v>
+      </c>
+      <c r="G140">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>258010.47480868999</v>
+      </c>
+      <c r="B141">
+        <v>3369366.7666931199</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0.32235799999999998</v>
+      </c>
+      <c r="E141">
+        <v>4.2296079999999998</v>
+      </c>
+      <c r="F141">
+        <v>101.449997</v>
+      </c>
+      <c r="G141">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>258010.64618206001</v>
+      </c>
+      <c r="B142">
+        <v>3369366.61828613</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0.49373099999999998</v>
+      </c>
+      <c r="E142">
+        <v>4.0811970000000004</v>
+      </c>
+      <c r="F142">
+        <v>101.550003</v>
+      </c>
+      <c r="G142">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>258010.81142235</v>
+      </c>
+      <c r="B143">
+        <v>3369366.4915847802</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0.65897099999999997</v>
+      </c>
+      <c r="E143">
+        <v>3.9544980000000001</v>
+      </c>
+      <c r="F143">
+        <v>101.650002</v>
+      </c>
+      <c r="G143">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>258010.99299716999</v>
+      </c>
+      <c r="B144">
+        <v>3369366.2505493201</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0.84054600000000002</v>
+      </c>
+      <c r="E144">
+        <v>3.7134580000000001</v>
+      </c>
+      <c r="F144">
+        <v>101.75</v>
+      </c>
+      <c r="G144">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>258011.13163757001</v>
+      </c>
+      <c r="B145">
+        <v>3369366.0830841102</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0.97918700000000003</v>
+      </c>
+      <c r="E145">
+        <v>3.5459990000000001</v>
+      </c>
+      <c r="F145">
+        <v>101.849998</v>
+      </c>
+      <c r="G145">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>258011.27345561999</v>
+      </c>
+      <c r="B146">
+        <v>3369365.8825683598</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1.121005</v>
+      </c>
+      <c r="E146">
+        <v>3.3454809999999999</v>
+      </c>
+      <c r="F146">
+        <v>101.949997</v>
+      </c>
+      <c r="G146">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>258011.46398162999</v>
+      </c>
+      <c r="B147">
+        <v>3369365.5951004</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1.311531</v>
+      </c>
+      <c r="E147">
+        <v>3.0580159999999998</v>
+      </c>
+      <c r="F147">
+        <v>102.050003</v>
+      </c>
+      <c r="G147">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>258011.59549332</v>
+      </c>
+      <c r="B148">
+        <v>3369365.4374542199</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>1.4430419999999999</v>
+      </c>
+      <c r="E148">
+        <v>2.900369</v>
+      </c>
+      <c r="F148">
+        <v>102.150002</v>
+      </c>
+      <c r="G148">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>258011.67878628001</v>
+      </c>
+      <c r="B149">
+        <v>3369365.2405242901</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1.526335</v>
+      </c>
+      <c r="E149">
+        <v>2.7034370000000001</v>
+      </c>
+      <c r="F149">
+        <v>102.25</v>
+      </c>
+      <c r="G149">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>258011.84963799</v>
+      </c>
+      <c r="B150">
+        <v>3369365.0213775602</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1.6875800000000001</v>
+      </c>
+      <c r="E150">
+        <v>2.4845060000000001</v>
+      </c>
+      <c r="F150">
+        <v>102.349998</v>
+      </c>
+      <c r="G150">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>258012.03367805001</v>
+      </c>
+      <c r="B151">
+        <v>3369364.72956848</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1.8716200000000001</v>
+      </c>
+      <c r="E151">
+        <v>2.1926969999999999</v>
+      </c>
+      <c r="F151">
+        <v>102.449997</v>
+      </c>
+      <c r="G151">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>258012.00638293999</v>
+      </c>
+      <c r="B152">
+        <v>3369364.4777984601</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1.8539319999999999</v>
+      </c>
+      <c r="E152">
+        <v>1.940709</v>
+      </c>
+      <c r="F152">
+        <v>102.550003</v>
+      </c>
+      <c r="G152">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>258012.16203117001</v>
+      </c>
+      <c r="B153">
+        <v>3369364.2592010498</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>2.0095800000000001</v>
+      </c>
+      <c r="E153">
+        <v>1.7221109999999999</v>
+      </c>
+      <c r="F153">
+        <v>102.650002</v>
+      </c>
+      <c r="G153">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>258012.25657557999</v>
+      </c>
+      <c r="B154">
+        <v>3369363.98833847</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>2.0945179999999999</v>
+      </c>
+      <c r="E154">
+        <v>1.4514640000000001</v>
+      </c>
+      <c r="F154">
+        <v>102.75</v>
+      </c>
+      <c r="G154">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>258012.49635887</v>
+      </c>
+      <c r="B155">
+        <v>3369363.7225837698</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>2.334301</v>
+      </c>
+      <c r="E155">
+        <v>1.185711</v>
+      </c>
+      <c r="F155">
+        <v>102.849998</v>
+      </c>
+      <c r="G155">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>258012.70260906001</v>
+      </c>
+      <c r="B156">
+        <v>3369363.4116058298</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>2.5405509999999998</v>
+      </c>
+      <c r="E156">
+        <v>0.87473400000000001</v>
+      </c>
+      <c r="F156">
+        <v>102.949997</v>
+      </c>
+      <c r="G156">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>258012.66760635001</v>
+      </c>
+      <c r="B157">
+        <v>3369362.94458008</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>2.5055480000000001</v>
+      </c>
+      <c r="E157">
+        <v>0.40770699999999999</v>
+      </c>
+      <c r="F157">
+        <v>103.050003</v>
+      </c>
+      <c r="G157">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>258012.59339714001</v>
+      </c>
+      <c r="B158">
+        <v>3369362.7873382601</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>2.440699</v>
+      </c>
+      <c r="E158">
+        <v>0.23916599999999999</v>
+      </c>
+      <c r="F158">
+        <v>103.150002</v>
+      </c>
+      <c r="G158">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:G163">
+    <sortCondition ref="G1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>